--- a/teaching/traditional_assets/database/data/thailand/thailand_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_insurance_general.xlsx
@@ -590,41 +590,47 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0116</v>
+      </c>
+      <c r="E2">
+        <v>-0.0183</v>
+      </c>
       <c r="G2">
-        <v>0.01777031033801146</v>
+        <v>0.1425619029050497</v>
       </c>
       <c r="H2">
-        <v>0.01777031033801146</v>
+        <v>0.1425619029050497</v>
       </c>
       <c r="I2">
-        <v>0.1171122343430439</v>
+        <v>0.04331219258228059</v>
       </c>
       <c r="J2">
-        <v>0.09341985998395626</v>
+        <v>0.03807849586920421</v>
       </c>
       <c r="K2">
-        <v>73.52000000000001</v>
+        <v>10.714</v>
       </c>
       <c r="L2">
-        <v>0.07266258153785334</v>
+        <v>0.01392604146357315</v>
       </c>
       <c r="M2">
-        <v>12.6</v>
+        <v>20.046</v>
       </c>
       <c r="N2">
-        <v>0.00778642936596218</v>
+        <v>0.009190775296868552</v>
       </c>
       <c r="O2">
-        <v>0.1713819368879216</v>
+        <v>1.871009893597162</v>
       </c>
       <c r="P2">
-        <v>12.6</v>
+        <v>20.046</v>
       </c>
       <c r="Q2">
-        <v>0.00778642936596218</v>
+        <v>0.009190775296868552</v>
       </c>
       <c r="R2">
-        <v>0.1713819368879216</v>
+        <v>1.871009893597162</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>141.12</v>
+        <v>151.46</v>
       </c>
       <c r="V2">
-        <v>0.08720800889877642</v>
+        <v>0.06944202466645272</v>
       </c>
       <c r="W2">
-        <v>1.170370370370371</v>
+        <v>0.0681465038845727</v>
       </c>
       <c r="X2">
-        <v>0.05595187592315956</v>
+        <v>0.05227857527517844</v>
       </c>
       <c r="Y2">
-        <v>1.114418494447211</v>
+        <v>0.01586792860939426</v>
       </c>
       <c r="Z2">
-        <v>40.26390573332714</v>
+        <v>0.7574326880129376</v>
       </c>
       <c r="AA2">
-        <v>4.561148662920244</v>
+        <v>0.08666388149013707</v>
       </c>
       <c r="AB2">
-        <v>0.05566565143033567</v>
+        <v>0.05136310769010619</v>
       </c>
       <c r="AC2">
-        <v>4.505621370373481</v>
+        <v>0.03530077380003088</v>
       </c>
       <c r="AD2">
-        <v>532.8</v>
+        <v>565.222</v>
       </c>
       <c r="AE2">
-        <v>18.73920645854075</v>
+        <v>5.993823184112134</v>
       </c>
       <c r="AF2">
-        <v>551.5392064585408</v>
+        <v>571.2158231841122</v>
       </c>
       <c r="AG2">
-        <v>410.4192064585408</v>
+        <v>419.7558231841122</v>
       </c>
       <c r="AH2">
-        <v>0.2541960825599708</v>
+        <v>0.2075400716634624</v>
       </c>
       <c r="AI2">
-        <v>0.4688965598702666</v>
+        <v>0.5326191388441573</v>
       </c>
       <c r="AJ2">
-        <v>0.2023145621178602</v>
+        <v>0.161391423331657</v>
       </c>
       <c r="AK2">
-        <v>0.3964907993106452</v>
+        <v>0.4557580556145969</v>
       </c>
       <c r="AL2">
-        <v>15</v>
+        <v>14.776</v>
       </c>
       <c r="AM2">
-        <v>15</v>
+        <v>14.776</v>
       </c>
       <c r="AN2">
-        <v>21.80746561886051</v>
+        <v>6.346459168435118</v>
       </c>
       <c r="AO2">
-        <v>7.992666666666667</v>
+        <v>2.105170546832702</v>
       </c>
       <c r="AP2">
-        <v>16.79842855511382</v>
+        <v>4.713127218244935</v>
       </c>
       <c r="AQ2">
-        <v>7.992666666666667</v>
+        <v>2.105170546832702</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thai Group Holdings Public Company Limited (SET:SEG)</t>
+          <t>TQM Corporation Public Company Limited (SET:TQM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,106 +725,115 @@
         </is>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2274590163934426</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2274590163934426</v>
       </c>
       <c r="I3">
-        <v>0.1053216622883358</v>
+        <v>0.2783998791350634</v>
       </c>
       <c r="J3">
-        <v>0.08317934877820157</v>
+        <v>0.2251921802270108</v>
       </c>
       <c r="K3">
-        <v>56.7</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>0.06185229628013527</v>
+        <v>0.2151639344262295</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01487984524960941</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>20</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01487984524960941</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>121.4</v>
+        <v>21.6</v>
       </c>
       <c r="V3">
-        <v>0.1306359625524589</v>
+        <v>0.01607023286957816</v>
+      </c>
+      <c r="W3">
+        <v>0.2892561983471075</v>
       </c>
       <c r="X3">
-        <v>0.07260872028919936</v>
+        <v>0.05124505897125854</v>
+      </c>
+      <c r="Y3">
+        <v>0.2380111393758489</v>
       </c>
       <c r="Z3">
-        <v>58.73209571519843</v>
+        <v>1.746260511603108</v>
       </c>
       <c r="AA3">
-        <v>4.885297473969208</v>
+        <v>0.3932442118522391</v>
       </c>
       <c r="AB3">
-        <v>0.06090801533071982</v>
+        <v>0.05099485300362958</v>
       </c>
       <c r="AC3">
-        <v>4.824389458638488</v>
+        <v>0.3422493588486095</v>
       </c>
       <c r="AD3">
-        <v>532.8</v>
+        <v>19.5</v>
       </c>
       <c r="AE3">
-        <v>15.6081609014129</v>
+        <v>1.890858982089074</v>
       </c>
       <c r="AF3">
-        <v>548.4081609014129</v>
+        <v>21.39085898208907</v>
       </c>
       <c r="AG3">
-        <v>427.0081609014129</v>
+        <v>-0.2091410179109268</v>
       </c>
       <c r="AH3">
-        <v>0.3711207499638358</v>
+        <v>0.01566532565295602</v>
       </c>
       <c r="AI3">
-        <v>0.5024315717882628</v>
+        <v>0.2353466478549218</v>
       </c>
       <c r="AJ3">
-        <v>0.314831225831171</v>
+        <v>-0.0001556235140027202</v>
       </c>
       <c r="AK3">
-        <v>0.440165517734272</v>
+        <v>-0.003018306036081721</v>
       </c>
       <c r="AL3">
-        <v>15</v>
+        <v>0.051</v>
       </c>
       <c r="AM3">
-        <v>15</v>
+        <v>0.051</v>
       </c>
       <c r="AN3">
-        <v>1133.617021276596</v>
+        <v>0.6854130052724078</v>
       </c>
       <c r="AO3">
-        <v>6.613333333333333</v>
+        <v>509.8039215686275</v>
       </c>
       <c r="AP3">
-        <v>908.5280019178998</v>
+        <v>-0.007351178133951732</v>
       </c>
       <c r="AQ3">
-        <v>6.613333333333333</v>
+        <v>509.8039215686275</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TQM Corporation Public Company Limited (SET:TQM)</t>
+          <t>ASN Broker Public Company Limited (SET:ASN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -837,41 +852,47 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.0116</v>
+      </c>
+      <c r="E4">
+        <v>-0.0183</v>
+      </c>
       <c r="G4">
-        <v>0.1877777777777778</v>
+        <v>0.3115789473684211</v>
       </c>
       <c r="H4">
-        <v>0.1877777777777778</v>
+        <v>0.3115789473684211</v>
       </c>
       <c r="I4">
-        <v>0.2288231529626452</v>
+        <v>0.1813761319521656</v>
       </c>
       <c r="J4">
-        <v>0.1864790746566712</v>
+        <v>0.1502900742491628</v>
       </c>
       <c r="K4">
-        <v>15.8</v>
+        <v>0.614</v>
       </c>
       <c r="L4">
-        <v>0.1755555555555556</v>
+        <v>0.1292631578947368</v>
       </c>
       <c r="M4">
-        <v>12.6</v>
+        <v>0.046</v>
       </c>
       <c r="N4">
-        <v>0.01905914385115716</v>
+        <v>0.002026431718061674</v>
       </c>
       <c r="O4">
-        <v>0.7974683544303797</v>
+        <v>0.07491856677524431</v>
       </c>
       <c r="P4">
-        <v>12.6</v>
+        <v>0.046</v>
       </c>
       <c r="Q4">
-        <v>0.01905914385115716</v>
+        <v>0.002026431718061674</v>
       </c>
       <c r="R4">
-        <v>0.7974683544303797</v>
+        <v>0.07491856677524431</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -880,67 +901,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>18.6</v>
+        <v>4.26</v>
       </c>
       <c r="V4">
-        <v>0.02813492663742248</v>
+        <v>0.1876651982378855</v>
       </c>
       <c r="W4">
-        <v>1.170370370370371</v>
+        <v>0.0681465038845727</v>
       </c>
       <c r="X4">
-        <v>0.05559816951176215</v>
+        <v>0.05227857527517844</v>
       </c>
       <c r="Y4">
-        <v>1.114772200858608</v>
+        <v>0.01586792860939426</v>
       </c>
       <c r="Z4">
-        <v>24.45930553504638</v>
+        <v>0.5766440792787074</v>
       </c>
       <c r="AA4">
-        <v>4.561148662920244</v>
+        <v>0.08666388149013707</v>
       </c>
       <c r="AB4">
-        <v>0.05552729254676297</v>
+        <v>0.05136310769010619</v>
       </c>
       <c r="AC4">
-        <v>4.505621370373481</v>
+        <v>0.03530077380003088</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.722</v>
       </c>
       <c r="AE4">
-        <v>2.679581166809663</v>
+        <v>0.3473168661360679</v>
       </c>
       <c r="AF4">
-        <v>2.679581166809663</v>
+        <v>1.069316866136068</v>
       </c>
       <c r="AG4">
-        <v>-15.92041883319034</v>
+        <v>-3.190683133863932</v>
       </c>
       <c r="AH4">
-        <v>0.004036853863596441</v>
+        <v>0.04498727801721193</v>
       </c>
       <c r="AI4">
-        <v>0.03559505944742258</v>
+        <v>0.1046368245689183</v>
       </c>
       <c r="AJ4">
-        <v>-0.02467594960832177</v>
+        <v>-0.1635466354745749</v>
       </c>
       <c r="AK4">
-        <v>-0.2808845532280149</v>
+        <v>-0.5354108877806195</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.6498649864986499</v>
+      </c>
+      <c r="AO4">
+        <v>30.64</v>
       </c>
       <c r="AP4">
-        <v>-0.7129609867080313</v>
+        <v>-2.871902010678606</v>
+      </c>
+      <c r="AQ4">
+        <v>30.64</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASN Broker Public Company Limited (SET:ASN)</t>
+          <t>Thai Group Holdings Public Company Limited (SET:SEG)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,22 +987,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.211764705882353</v>
+        <v>0.1289355322338831</v>
       </c>
       <c r="H5">
-        <v>0.211764705882353</v>
+        <v>0.1289355322338831</v>
       </c>
       <c r="I5">
-        <v>0.2650406121443849</v>
+        <v>0.007929341128669568</v>
       </c>
       <c r="J5">
-        <v>0.2089506221324337</v>
+        <v>0.007929341128669568</v>
       </c>
       <c r="K5">
-        <v>1.02</v>
+        <v>-10.9</v>
       </c>
       <c r="L5">
-        <v>0.2</v>
+        <v>-0.01634182908545727</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -984,7 +1011,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -993,73 +1020,79 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.12</v>
+        <v>125.6</v>
       </c>
       <c r="V5">
-        <v>0.04028776978417267</v>
+        <v>0.1542429080191575</v>
       </c>
       <c r="W5">
-        <v>0.1347424042272127</v>
+        <v>-0.02021513353115727</v>
       </c>
       <c r="X5">
-        <v>0.05595187592315956</v>
+        <v>0.07304682698637138</v>
       </c>
       <c r="Y5">
-        <v>0.07879052830405311</v>
+        <v>-0.09326196051752865</v>
       </c>
       <c r="Z5">
-        <v>0.8730687477018416</v>
+        <v>0.7009205986401317</v>
       </c>
       <c r="AA5">
-        <v>0.1824282579966846</v>
+        <v>0.00555783853072889</v>
       </c>
       <c r="AB5">
-        <v>0.05566565143033567</v>
+        <v>0.05783941629695588</v>
       </c>
       <c r="AC5">
-        <v>0.1267626065663489</v>
+        <v>-0.05228157776622699</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="AE5">
-        <v>0.4514643903181844</v>
+        <v>3.755647335886993</v>
       </c>
       <c r="AF5">
-        <v>0.4514643903181844</v>
+        <v>548.755647335887</v>
       </c>
       <c r="AG5">
-        <v>-0.6685356096818157</v>
+        <v>423.155647335887</v>
       </c>
       <c r="AH5">
-        <v>0.01598021200178571</v>
+        <v>0.4025922554287775</v>
       </c>
       <c r="AI5">
-        <v>0.04771612212377643</v>
+        <v>0.5649379285959221</v>
       </c>
       <c r="AJ5">
-        <v>-0.02464060177748391</v>
+        <v>0.3419562133373402</v>
       </c>
       <c r="AK5">
-        <v>-0.08014607248791654</v>
+        <v>0.5003284916498265</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>9.159663865546218</v>
+      </c>
+      <c r="AO5">
+        <v>0.2952380952380952</v>
       </c>
       <c r="AP5">
-        <v>-0.409641917697191</v>
+        <v>7.111859619090538</v>
+      </c>
+      <c r="AQ5">
+        <v>0.2952380952380952</v>
       </c>
     </row>
   </sheetData>
